--- a/public/utils/CARGA_MASIVA_DE_CLNT.xlsx
+++ b/public/utils/CARGA_MASIVA_DE_CLNT.xlsx
@@ -1,45 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaeltejadamedina/Documents/RAFAEL/ORUMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\orumi excvel\Nuevo Formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF68E95-C21F-E342-9028-D77A4CC5C1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF09A77-9549-4129-96C2-036984A7DA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16940" activeTab="1" xr2:uid="{7068DE3E-C2B6-BD4D-BD29-BE7F44046B07}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7068DE3E-C2B6-BD4D-BD29-BE7F44046B07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">CORREO </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PAIS</t>
   </si>
@@ -47,35 +33,50 @@
     <t>CIUDAD</t>
   </si>
   <si>
+    <t xml:space="preserve">PROVEDOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMENTARIOS </t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>TELEFONO_OPCIONAL</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
     <t>CAMPAÑA</t>
   </si>
   <si>
-    <t xml:space="preserve">PROVEDOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMENTARIOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEFONO 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEFONO 2 </t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DCU CARGA MASIVA DE CLIENTES</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PLATAFORMA</t>
+  </si>
+  <si>
+    <t>CODIGO TRAIDING</t>
+  </si>
+  <si>
+    <t>FOLDER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,9 +85,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,32 +124,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -148,43 +218,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,18 +233,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7A0427-C96B-3846-A9D6-5D340B4019C1}" name="Tabla2" displayName="Tabla2" ref="A3:J45" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A0B57F9A-6C39-0549-A608-CDEA7319C33A}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{43987B88-553B-F744-9D8A-891F7EE92349}" name="NOMBRE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3583BDBF-E31E-394A-99FA-F7CF5F90C2C2}" name="CORREO " dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{531EAF5F-F0E0-0544-9E1C-A3BE453070F5}" name="TELEFONO 1 " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{56A0E1D4-C418-364A-B6E1-2BEE56FF2E29}" name="TELEFONO 2 " dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7A0427-C96B-3846-A9D6-5D340B4019C1}" name="Tabla2" displayName="Tabla2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{A0B57F9A-6C39-0549-A608-CDEA7319C33A}" name="CODIGO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{43987B88-553B-F744-9D8A-891F7EE92349}" name="NOMBRES" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3583BDBF-E31E-394A-99FA-F7CF5F90C2C2}" name="APELLIDOS" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{4F46BC3A-592A-4521-9011-216D29A08222}" name="CORREO" dataDxfId="11" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="4" xr3:uid="{531EAF5F-F0E0-0544-9E1C-A3BE453070F5}" name="TELEFONO" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{56A0E1D4-C418-364A-B6E1-2BEE56FF2E29}" name="TELEFONO_OPCIONAL" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{9CA16D6D-6129-F844-93E5-ECAE52279FF3}" name="CIUDAD" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{BDDEE939-8790-404F-8E05-6F287DDD4D34}" name="PAIS" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{2E0E1862-D466-624A-B7B0-E63EE3C4629B}" name="CAMPAÑA" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{4E45D393-7F71-4141-83DE-248597969228}" name="PROVEDOR " dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{45982B5C-ED05-314D-9735-AD2677591FE8}" name="COMENTARIOS " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BDDEE939-8790-404F-8E05-6F287DDD4D34}" name="PAIS" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4E45D393-7F71-4141-83DE-248597969228}" name="PROVEDOR " dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{BFB417DD-97B3-4655-897D-AF141A7B7C32}" name="CAMPAÑA" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{21F9C126-E68C-4ED8-8D8C-3786614C40C8}" name="ESTADO" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{0664C442-4003-4627-84D6-C60956586D9A}" name="PLATAFORMA" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{C51BD956-7CF9-4CBA-BFE9-5C2406CDA54D}" name="CODIGO TRAIDING" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7D849D3F-8CB6-4FC8-A02A-F25CEAD76AD2}" name="FOLDER" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{45982B5C-ED05-314D-9735-AD2677591FE8}" name="COMENTARIOS " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,216 +551,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF48AFE-D84A-454B-BEAE-DFB2530D128B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F1EFC-E0CE-1B4A-B17B-BDA60730C955}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F1EFC-E0CE-1B4A-B17B-BDA60730C955}">
-  <dimension ref="A2:J46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" customWidth="1"/>
+    <col min="1" max="2" width="11.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.09765625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="11.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.19921875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="38.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
